--- a/APM files/133756694/Properties Under VRPM Rental Manager LLC.xlsx
+++ b/APM files/133756694/Properties Under VRPM Rental Manager LLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/133756694/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA05654-2064-434F-A6DB-AE078C1B06C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4672CB8B-5EA6-1D45-A5B8-330EE9B7641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="7120" windowWidth="19420" windowHeight="11500" xr2:uid="{1CB8EE2B-E44E-4057-83FA-552312EC0867}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
